--- a/test.xlsx
+++ b/test.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,61 +427,695 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>0.7502601055951177</v>
+        <v>0.7702989490466019</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>0.8413447460685435</v>
+        <v>0.7891817065222529</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>0.8069013157667836</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>0.8234647252208833</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>0.8388910504234147</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>0.8532096601986177</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>0.8664582774667876</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>0.8786811621082632</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>0.8899274256374969</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>0.9002495108803148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0.7685247834990175</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.783897835898928e-09</v>
+        <v>0.7891817065222529</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.8084546514385326</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.826353352980995</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.8429045311145473</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.8581489350995123</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.8721384336809187</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.8849332679544502</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0.8965995485417504</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0.907207046882843</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0.9168273035060777</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0.7858349830425586</v>
+        <v>0.8069013157667836</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.826353352980995</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.8442241598762525</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.86056612703835</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.8754466418125836</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.8889440332885924</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.9011439268218306</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0.9121360851706988</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0.9220117648706336</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0.9308615796566533</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0.8021838885585817</v>
+        <v>0.8234647252208833</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.8429045311145473</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.86056612703835</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.8765329524347759</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.8909031788043871</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.9037844582893072</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.9152894342692642</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.9255320548339719</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.9346246665744273</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0.9426758241011313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0.8175744761936437</v>
+        <v>0.8388910504234147</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.8581489350995123</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.8754466418125836</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.8909031788043871</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.9046505351008906</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.9168273035060777</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.9275735146384823</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0.9370266439430035</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.9453186827840592</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0.8320183851339245</v>
+        <v>0.8532096601986177</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.8721384336809187</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.8889440332885924</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.9037844582893072</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.9168273035060777</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.9282424577362486</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.9381965337364114</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.9468488636019362</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.9543488292155562</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.9608342772032357</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0.8455347349164652</v>
+        <v>0.8664582774667876</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.8849332679544502</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.9011439268218306</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.9152894342692642</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.9275735146384823</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.9381965337364114</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.947349881564697</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0.9552122969502131</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0.9619477529290079</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0.9677045353015494</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0.8581489350995123</v>
+        <v>0.8786811621082632</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.8965995485417504</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.9121360851706988</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.9255320548339719</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.9370266439430035</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.9468488636019362</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.9552122969502131</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0.9623121094913941</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0.9683237716209436</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0.973403006423134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0.8698915256370021</v>
+        <v>0.8899274256374969</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0.907207046882843</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.9220117648706336</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.9346246665744273</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.9453186827840592</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.9543488292155562</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.9619477529290079</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0.9683237716209436</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0.9736606803747168</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0.9781187290638694</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0.8807970779778823</v>
+        <v>0.9002495108803148</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0.9168273035060777</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.9308615796566533</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.9426758241011313</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.9525741268224334</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.9608342772032357</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0.9677045353015494</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0.973403006423134</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0.9781187290638694</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0.9820137900379085</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>0.8643339390536181</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0.8849303297782929</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.9031995154143908</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.919243340766229</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.933192798731142</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0.9452007083004269</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0.955434537241457</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0.9640696808870743</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0.9712834401839983</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0.9772498680518209</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>0.8643339390536181</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0.8849303297782929</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.9031995154143908</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.919243340766229</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.933192798731142</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0.9452007083004269</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0.955434537241457</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0.9640696808870743</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0.9712834401839983</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0.9772498680518209</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>0.8643339390536181</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0.8849303297782929</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0.9031995154143908</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0.919243340766229</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.933192798731142</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0.9452007083004269</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0.955434537241457</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0.9640696808870743</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0.9712834401839983</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>0.9772498680518209</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>0.8643339390536181</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0.8849303297782929</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0.9031995154143908</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0.919243340766229</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.933192798731142</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0.9452007083004269</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0.955434537241457</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0.9640696808870743</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0.9712834401839983</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0.9772498680518209</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>0.8643339390536181</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0.8849303297782929</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0.9031995154143908</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0.919243340766229</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.933192798731142</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0.9452007083004269</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0.955434537241457</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0.9640696808870743</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0.9712834401839983</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0.9772498680518209</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>0.8643339390536181</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0.8849303297782929</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0.9031995154143908</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0.919243340766229</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.933192798731142</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0.9452007083004269</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0.955434537241457</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0.9640696808870743</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0.9712834401839983</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0.9772498680518209</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>0.8643339390536181</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0.8849303297782929</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0.9031995154143908</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0.919243340766229</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.933192798731142</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0.9452007083004269</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0.955434537241457</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0.9640696808870743</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0.9712834401839983</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0.9772498680518209</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>0.8643339390536181</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0.8849303297782929</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0.9031995154143908</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0.919243340766229</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.933192798731142</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0.9452007083004269</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0.955434537241457</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0.9640696808870743</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0.9712834401839983</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0.9772498680518209</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>0.8643339390536181</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0.8849303297782929</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0.9031995154143908</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0.919243340766229</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0.933192798731142</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0.9452007083004269</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0.955434537241457</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0.9640696808870743</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0.9712834401839983</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0.9772498680518209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>0.8643339390536181</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0.8849303297782929</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0.9031995154143908</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0.919243340766229</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0.933192798731142</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0.9452007083004269</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0.955434537241457</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0.9640696808870743</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0.9712834401839983</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0.9772498680518209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4.06181171881666e-09</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6.478535895576864e-09</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.100615612890496e-08</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.169210785657687e-11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.338857180696214e-10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8.557039841644214e-09</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.550633540277058e-09</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.343227249712764e-09</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.156609917311818e-09</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.90117778047459e-09</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -427,322 +427,322 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>0.7702989490466019</v>
+        <v>0.7504661557191048</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>0.7891817065222529</v>
+        <v>0.7506720923354948</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>0.8069013157667836</v>
+        <v>0.7508779154135659</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>0.8234647252208833</v>
+        <v>0.7510836249227669</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>0.8388910504234147</v>
+        <v>0.7512892208327181</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0.8532096601986177</v>
+        <v>0.7514947031132109</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>0.8664582774667876</v>
+        <v>0.7517000717342071</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>0.8786811621082632</v>
+        <v>0.7519053266658393</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>0.8899274256374969</v>
+        <v>0.7521104678784108</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>0.9002495108803148</v>
+        <v>0.7523154953423952</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0.7891817065222529</v>
+        <v>0.7687381880368964</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0.8084546514385326</v>
+        <v>0.7689514549792872</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.826353352980995</v>
+        <v>0.7691645843058181</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.8429045311145473</v>
+        <v>0.7693775759963419</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.8581489350995123</v>
+        <v>0.7695904300309351</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.8721384336809187</v>
+        <v>0.7698031463898984</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.8849332679544502</v>
+        <v>0.7700157250537559</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.8965995485417504</v>
+        <v>0.7702281660032549</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.907207046882843</v>
+        <v>0.7704404692193664</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.9168273035060777</v>
+        <v>0.7706526346832835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0.8069013157667836</v>
+        <v>0.7860536896147811</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0.826353352980995</v>
+        <v>0.7862722335867555</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.8442241598762525</v>
+        <v>0.7864906149552817</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.86056612703835</v>
+        <v>0.7867088337174389</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.8754466418125836</v>
+        <v>0.7869268898705855</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.8889440332885924</v>
+        <v>0.7871447834123575</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.9011439268218306</v>
+        <v>0.7873625143406702</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.9121360851706988</v>
+        <v>0.7875800826537159</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.9220117648706336</v>
+        <v>0.7877974883499647</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.9308615796566533</v>
+        <v>0.788014731428163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0.8234647252208833</v>
+        <v>0.8024059534326069</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.8429045311145473</v>
+        <v>0.8026278303557635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.86056612703835</v>
+        <v>0.8028495193494033</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.8765329524347759</v>
+        <v>0.8030710204352103</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.8909031788043871</v>
+        <v>0.8032923336351995</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.9037844582893072</v>
+        <v>0.8035134589717166</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.9152894342692642</v>
+        <v>0.8037343964674374</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.9255320548339719</v>
+        <v>0.803955146145367</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.9346246665744273</v>
+        <v>0.804175708028839</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.9426758241011313</v>
+        <v>0.8043960821415153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0.8388910504234147</v>
+        <v>0.8177980893090946</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0.8581489350995123</v>
+        <v>0.8180214893347024</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.8754466418125836</v>
+        <v>0.8182446763239488</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.8909031788043871</v>
+        <v>0.8184676503306926</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.9046505351008906</v>
+        <v>0.8186904114091682</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.9168273035060777</v>
+        <v>0.8189129596139858</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.9275735146384823</v>
+        <v>0.8191352950001292</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.9370266439430035</v>
+        <v>0.8193574176229559</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.9453186827840592</v>
+        <v>0.8195793275381954</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.9525741268224334</v>
+        <v>0.8198010248019487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0.8532096601986177</v>
+        <v>0.8322418884218156</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0.8721384336809187</v>
+        <v>0.8324651542131132</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.8889440332885924</v>
+        <v>0.8326881826008405</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.9037844582893072</v>
+        <v>0.8329109736784304</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.9168273035060777</v>
+        <v>0.833133527539723</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.9282424577362486</v>
+        <v>0.8333558442789665</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.9381965337364114</v>
+        <v>0.8335779239908139</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.9468488636019362</v>
+        <v>0.8337997667703227</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.9543488292155562</v>
+        <v>0.8340213727129542</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.9608342772032357</v>
+        <v>0.8342427419145709</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0.8664582774667876</v>
+        <v>0.8457566342871686</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>0.8849332679544502</v>
+        <v>0.8459782729523635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.9011439268218306</v>
+        <v>0.8461996510515235</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.9152894342692642</v>
+        <v>0.8464207687245469</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.9275735146384823</v>
+        <v>0.8466416261117548</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0.9381965337364114</v>
+        <v>0.8468622233538894</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.947349881564697</v>
+        <v>0.8470825605921125</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.9552122969502131</v>
+        <v>0.8473026379680039</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.9619477529290079</v>
+        <v>0.8475224556235593</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.9677045353015494</v>
+        <v>0.8477420137011901</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0.8786811621082632</v>
+        <v>0.8583679066889117</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>0.8965995485417504</v>
+        <v>0.8585865959598962</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.9121360851706988</v>
+        <v>0.8588050031045084</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.9255320548339719</v>
+        <v>0.859023128315209</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.9370266439430035</v>
+        <v>0.8592409717848747</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.9468488636019362</v>
+        <v>0.8594585337067957</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.9552122969502131</v>
+        <v>0.8596758142746737</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.9623121094913941</v>
+        <v>0.8598928136826208</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.9683237716209436</v>
+        <v>0.8601095321251558</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.973403006423134</v>
+        <v>0.8603259697972047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0.8899274256374969</v>
+        <v>0.8701064170405859</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>0.907207046882843</v>
+        <v>0.8703210064324237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.9220117648706336</v>
+        <v>0.8705352940622287</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.9346246665744273</v>
+        <v>0.8707492801801003</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.9453186827840592</v>
+        <v>0.8709629650365214</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>0.9543488292155562</v>
+        <v>0.8711763488823561</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0.9619477529290079</v>
+        <v>0.8713894319688473</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>0.9683237716209436</v>
+        <v>0.8716022145476148</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>0.9736606803747168</v>
+        <v>0.8718146968706518</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>0.9781187290638694</v>
+        <v>0.872026879190324</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0.9002495108803148</v>
+        <v>0.8810069052755034</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>0.9168273035060777</v>
+        <v>0.8812164130341268</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.9308615796566533</v>
+        <v>0.8814256015650612</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.9426758241011313</v>
+        <v>0.8816344711799424</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.9525741268224334</v>
+        <v>0.8818430221907304</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>0.9608342772032357</v>
+        <v>0.8820512549097065</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0.9677045353015494</v>
+        <v>0.8822591696494712</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0.973403006423134</v>
+        <v>0.88246676672294</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0.9781187290638694</v>
+        <v>0.8826740464433428</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.9820137900379085</v>
+        <v>0.8828810091242195</v>
       </c>
     </row>
     <row r="12">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1067,7 +1067,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.06181171881666e-09</v>
+        <v>4.061811718780026e-09</v>
       </c>
       <c r="B22" t="n">
         <v>6.478535895576864e-09</v>
